--- a/final_clean_data/demographics_summary_final.xlsx
+++ b/final_clean_data/demographics_summary_final.xlsx
@@ -468,33 +468,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Classical Stroop</t>
+          <t>All Participants</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87</v>
+        <v>323</v>
       </c>
       <c r="C2" t="n">
-        <v>58</v>
+        <v>226</v>
       </c>
       <c r="D2" t="n">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>48.40 ± 13.74</t>
+          <t>47.74 ± 16.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>25 – 77</t>
+          <t>18 – 82</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Emotional Stroop</t>
+          <t>Classical Stroop</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -520,52 +520,52 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>WHO-5</t>
+          <t>Emotional Stroop</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>87</v>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D4" t="n">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>49.01 ± 13.51</t>
+          <t>48.40 ± 13.74</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>26 – 77</t>
+          <t>25 – 77</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>All Participants</t>
+          <t>WHO-5</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>323</v>
+        <v>86</v>
       </c>
       <c r="C5" t="n">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="D5" t="n">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>47.74 ± 16.47</t>
+          <t>49.13 ± 13.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>18 – 82</t>
+          <t>26 – 77</t>
         </is>
       </c>
     </row>
